--- a/tipo_residuos_total.xlsx
+++ b/tipo_residuos_total.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Alim Vencidos</t>
+          <t>alimentos_vencidos</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -495,7 +495,9 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="n">
         <v>1.37</v>
       </c>
@@ -512,7 +514,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Animais</t>
+          <t>animais</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -543,24 +545,38 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Desconsiderando Escoria, Chorume, Cancelamentos E Saï¿½Das De Resï¿½Duos</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+          <t>nao_classificados</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Diversos</t>
+          <t>diversos</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -591,28 +607,38 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Diversos-Emae</t>
+          <t>diversos_emae</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>328.48</v>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>6.7</v>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Domiciliar</t>
+          <t>domiciliar</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -643,7 +669,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Entulho Apreendido</t>
+          <t>entulho_apreendido</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -674,16 +700,30 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Entulho Do Predio</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+          <t>entulho_predial</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
       <c r="I9" t="n">
         <v>10</v>
       </c>
@@ -691,7 +731,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Entulho Manual</t>
+          <t>entulho_manual</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -722,7 +762,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Entulho Mecanizado</t>
+          <t>entulho_mecanizado</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -753,17 +793,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Equipe De Eventos Especiais E Operacoes De Emergencia</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
+          <t>eventos_e_emergencias</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
       <c r="E12" t="n">
         <v>6.88</v>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
       <c r="H12" t="n">
         <v>81</v>
       </c>
@@ -774,7 +824,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Esgoto</t>
+          <t>esgoto</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -805,7 +855,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Feira Livre</t>
+          <t>feira_livre</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -836,7 +886,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Gg Saude</t>
+          <t>saude_geral</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -867,18 +917,30 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Limpeza Urbana</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
+          <t>limpeza_urbana</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
       <c r="E16" t="n">
         <v>15.69</v>
       </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
       <c r="I16" t="n">
         <v>11</v>
       </c>
@@ -886,15 +948,27 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Madeira</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+          <t>madeira</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
       <c r="H17" t="n">
         <v>64.03999999999999</v>
       </c>
@@ -905,15 +979,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Material Apreendido</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+          <t>material_apreendido</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
       <c r="H18" t="n">
         <v>3</v>
       </c>
@@ -924,24 +1010,38 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Patio Compostagem</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+          <t>compostagem</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
       <c r="H19" t="n">
         <v>165</v>
       </c>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Pg Saude</t>
+          <t>saude_publica</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -972,7 +1072,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Poda</t>
+          <t>poda</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1003,13 +1103,21 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Rejeito</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+          <t>rejeito</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
@@ -1026,10 +1134,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Rejeito-Cmt Carolina Maria De Jesus</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
+          <t>rejeitos_cmj</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
       <c r="C23" t="n">
         <v>1034.74</v>
       </c>
@@ -1039,295 +1149,395 @@
       <c r="E23" t="n">
         <v>12421</v>
       </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>12780.25</v>
+      </c>
+      <c r="G23" t="n">
+        <v>11842.55</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2835.159</v>
+      </c>
+      <c r="I23" t="n">
+        <v>18.562</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Rejeito-Cmt Cmj</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+          <t>remocao_residuos</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
       <c r="F24" t="n">
-        <v>12780.25</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>11842.55</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>2835.159</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>18.562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Remocao Residuos Descartados</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+          <t>acumuladores</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Residuo De Acumulador</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+          <t>desfazimentos</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
       <c r="H26" t="n">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="I26" t="n">
-        <v>263</v>
+        <v>681</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Residuo De Desfazimento</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+          <t>ecoponto_entulho</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
       <c r="H27" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>681</v>
+        <v>82.212</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Residuo Ecoponto - Entulho</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
+          <t>bocas_de_lobo</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>7955.11</v>
+      </c>
+      <c r="C28" t="n">
+        <v>9517.230000000001</v>
+      </c>
+      <c r="D28" t="n">
+        <v>10056.29</v>
+      </c>
+      <c r="E28" t="n">
+        <v>12469.42</v>
+      </c>
+      <c r="F28" t="n">
+        <v>12431.24</v>
+      </c>
+      <c r="G28" t="n">
+        <v>8928.789999999999</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2538.284</v>
+      </c>
       <c r="I28" t="n">
-        <v>82.212</v>
+        <v>2759.684</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Residuos De Boca De Lobo</t>
+          <t>corregos</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>7955.11</v>
+        <v>171647.91</v>
       </c>
       <c r="C29" t="n">
-        <v>9517.230000000001</v>
+        <v>157491.99</v>
       </c>
       <c r="D29" t="n">
-        <v>10056.29</v>
+        <v>139996.59</v>
       </c>
       <c r="E29" t="n">
-        <v>12469.42</v>
+        <v>138409.32</v>
       </c>
       <c r="F29" t="n">
-        <v>12431.24</v>
+        <v>108494.62</v>
       </c>
       <c r="G29" t="n">
-        <v>8928.789999999999</v>
+        <v>88715.74000000001</v>
       </c>
       <c r="H29" t="n">
-        <v>2538.284</v>
+        <v>218.355</v>
       </c>
       <c r="I29" t="n">
-        <v>2759.684</v>
+        <v>256.927</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Residuos De Corregos</t>
+          <t>ecoponto</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>171647.91</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>157491.99</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>139996.59</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>138409.32</v>
+        <v>286960.98</v>
       </c>
       <c r="F30" t="n">
-        <v>108494.62</v>
+        <v>366170.54</v>
       </c>
       <c r="G30" t="n">
-        <v>88715.74000000001</v>
+        <v>413822.13</v>
       </c>
       <c r="H30" t="n">
-        <v>218.355</v>
+        <v>447.7359999999999</v>
       </c>
       <c r="I30" t="n">
-        <v>256.927</v>
+        <v>371.528</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Residuos De Ecoponto</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
+          <t>ecoponto_diversos</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
       <c r="E31" t="n">
-        <v>286960.98</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>366170.54</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>413822.13</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>447.7359999999999</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>371.528</v>
+        <v>457.244</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Residuos De Ecoponto - Diversos</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
+          <t>piscinoes</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>219038.11</v>
+      </c>
+      <c r="C32" t="n">
+        <v>198867.63</v>
+      </c>
+      <c r="D32" t="n">
+        <v>184230.56</v>
+      </c>
+      <c r="E32" t="n">
+        <v>175436.92</v>
+      </c>
+      <c r="F32" t="n">
+        <v>188915.06</v>
+      </c>
+      <c r="G32" t="n">
+        <v>177119.26</v>
+      </c>
+      <c r="H32" t="n">
+        <v>189.368</v>
+      </c>
       <c r="I32" t="n">
-        <v>457.244</v>
+        <v>193.429</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Residuos De Piscinao</t>
+          <t>patio_compostagem</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>219038.11</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>198867.63</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>184230.56</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>175436.92</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>188915.06</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>177119.26</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>189.368</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>193.429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Residuos Patio Compostagem</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
+          <t>coleta_seletiva</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>66439.39000000001</v>
+      </c>
+      <c r="C34" t="n">
+        <v>65832.82599999999</v>
+      </c>
+      <c r="D34" t="n">
+        <v>86714.22</v>
+      </c>
+      <c r="E34" t="n">
+        <v>84590.45000000001</v>
+      </c>
+      <c r="F34" t="n">
+        <v>87920.53999999999</v>
+      </c>
+      <c r="G34" t="n">
+        <v>76906.58</v>
+      </c>
+      <c r="H34" t="n">
+        <v>80.45399999999999</v>
+      </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>94.46499999999999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Seletiva</t>
+          <t>total geral</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>66439.39000000001</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>65832.82599999999</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>86714.22</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>84590.45000000001</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>87920.53999999999</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>76906.58</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>80.45399999999999</v>
+        <v>5629.081</v>
       </c>
       <c r="I35" t="n">
-        <v>94.46499999999999</v>
+        <v>5719.376999999999</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Varricao</t>
+          <t>varricao_manual</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1358,13 +1568,15 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Varricao Mecanizada</t>
+          <t>varricao mecanizada</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>18.33</v>
       </c>
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
       <c r="D37" t="n">
         <v>20.23</v>
       </c>
@@ -1383,19 +1595,6 @@
       <c r="I37" t="n">
         <v>5653</v>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr"/>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tipo_residuos_total.xlsx
+++ b/tipo_residuos_total.xlsx
@@ -571,7 +571,7 @@
         <v>26</v>
       </c>
       <c r="I3" t="n">
-        <v>22</v>
+        <v>220</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -583,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>507.84</v>
+        <v>705.84</v>
       </c>
     </row>
     <row r="4">
@@ -654,10 +654,10 @@
         <v>222670.45</v>
       </c>
       <c r="H5" t="n">
-        <v>255.42</v>
+        <v>255417</v>
       </c>
       <c r="I5" t="n">
-        <v>387.52</v>
+        <v>387522</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1758432.16</v>
+        <v>2400728.22</v>
       </c>
     </row>
     <row r="6">
@@ -740,10 +740,10 @@
         <v>3729838.76</v>
       </c>
       <c r="H7" t="n">
-        <v>3680.08</v>
+        <v>3680081</v>
       </c>
       <c r="I7" t="n">
-        <v>3619.32</v>
+        <v>3619317</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>22405537.7</v>
+        <v>29697636.3</v>
       </c>
     </row>
     <row r="8">
@@ -786,7 +786,7 @@
         <v>18</v>
       </c>
       <c r="I8" t="n">
-        <v>55</v>
+        <v>550</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>496.85</v>
+        <v>991.8499999999999</v>
       </c>
     </row>
     <row r="9">
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -869,10 +869,10 @@
         <v>60470.15</v>
       </c>
       <c r="H10" t="n">
-        <v>37.96</v>
+        <v>37964</v>
       </c>
       <c r="I10" t="n">
-        <v>24.8</v>
+        <v>23563</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>343492.34</v>
+        <v>404956.58</v>
       </c>
     </row>
     <row r="11">
@@ -912,10 +912,10 @@
         <v>455079.24</v>
       </c>
       <c r="H11" t="n">
-        <v>234.54</v>
+        <v>234539</v>
       </c>
       <c r="I11" t="n">
-        <v>125.43</v>
+        <v>103830</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>3794178.85</v>
+        <v>4132187.88</v>
       </c>
     </row>
     <row r="12">
@@ -958,7 +958,7 @@
         <v>81</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>88.88</v>
+        <v>97.88</v>
       </c>
     </row>
     <row r="13">
@@ -998,10 +998,10 @@
         <v>211892.1</v>
       </c>
       <c r="H13" t="n">
-        <v>200.98</v>
+        <v>200985</v>
       </c>
       <c r="I13" t="n">
-        <v>213.52</v>
+        <v>186372</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1095065.02</v>
+        <v>1482007.52</v>
       </c>
     </row>
     <row r="14">
@@ -1041,10 +1041,10 @@
         <v>69150.99000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>65.31999999999999</v>
+        <v>65325</v>
       </c>
       <c r="I14" t="n">
-        <v>75.81</v>
+        <v>63206</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>506257.8</v>
+        <v>634647.6699999999</v>
       </c>
     </row>
     <row r="15">
@@ -1084,10 +1084,10 @@
         <v>33561.65</v>
       </c>
       <c r="H15" t="n">
-        <v>33.52</v>
+        <v>33518</v>
       </c>
       <c r="I15" t="n">
-        <v>36.87</v>
+        <v>36869</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>200959.47</v>
+        <v>271276.08</v>
       </c>
     </row>
     <row r="16">
@@ -1130,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>26.69</v>
+        <v>125.69</v>
       </c>
     </row>
     <row r="17">
@@ -1170,10 +1170,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>64.04000000000001</v>
+        <v>12092</v>
       </c>
       <c r="I17" t="n">
-        <v>49.13</v>
+        <v>49125</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>113.17</v>
+        <v>61217</v>
       </c>
     </row>
     <row r="18">
@@ -1216,7 +1216,7 @@
         <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>675</v>
+        <v>6750</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>678</v>
+        <v>6753</v>
       </c>
     </row>
     <row r="19">
@@ -1302,7 +1302,7 @@
         <v>9127</v>
       </c>
       <c r="I20" t="n">
-        <v>8955</v>
+        <v>89550</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>62155.91</v>
+        <v>142750.91</v>
       </c>
     </row>
     <row r="21">
@@ -1342,10 +1342,10 @@
         <v>37675.32</v>
       </c>
       <c r="H21" t="n">
-        <v>49.77</v>
+        <v>49770</v>
       </c>
       <c r="I21" t="n">
-        <v>64.86</v>
+        <v>60075</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>258620.45</v>
+        <v>368350.82</v>
       </c>
     </row>
     <row r="22">
@@ -1428,10 +1428,10 @@
         <v>11842.55</v>
       </c>
       <c r="H23" t="n">
-        <v>2835.16</v>
+        <v>12984</v>
       </c>
       <c r="I23" t="n">
-        <v>18.56</v>
+        <v>16069</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1443,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>54854.57000000001</v>
+        <v>81053.85000000001</v>
       </c>
     </row>
     <row r="24">
@@ -1517,7 +1517,7 @@
         <v>187</v>
       </c>
       <c r="I25" t="n">
-        <v>263</v>
+        <v>2630</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>450</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="26">
@@ -1560,7 +1560,7 @@
         <v>77</v>
       </c>
       <c r="I26" t="n">
-        <v>681</v>
+        <v>6810</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>758</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="27">
@@ -1603,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>82.20999999999999</v>
+        <v>74436</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>82.20999999999999</v>
+        <v>74436</v>
       </c>
     </row>
     <row r="28">
@@ -1643,10 +1643,10 @@
         <v>8928.790000000001</v>
       </c>
       <c r="H28" t="n">
-        <v>2538.28</v>
+        <v>17807</v>
       </c>
       <c r="I28" t="n">
-        <v>2759.68</v>
+        <v>40154</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>66656.03999999999</v>
+        <v>119319.08</v>
       </c>
     </row>
     <row r="29">
@@ -1686,10 +1686,10 @@
         <v>88715.74000000001</v>
       </c>
       <c r="H29" t="n">
-        <v>218.36</v>
+        <v>218355</v>
       </c>
       <c r="I29" t="n">
-        <v>256.93</v>
+        <v>234256</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1701,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>805231.4600000001</v>
+        <v>1257367.17</v>
       </c>
     </row>
     <row r="30">
@@ -1729,10 +1729,10 @@
         <v>413822.13</v>
       </c>
       <c r="H30" t="n">
-        <v>447.74</v>
+        <v>447736</v>
       </c>
       <c r="I30" t="n">
-        <v>371.53</v>
+        <v>346544</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -1744,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1067772.92</v>
+        <v>1861233.65</v>
       </c>
     </row>
     <row r="31">
@@ -1775,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>457.24</v>
+        <v>5804</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -1787,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>457.24</v>
+        <v>5804</v>
       </c>
     </row>
     <row r="32">
@@ -1815,10 +1815,10 @@
         <v>177119.26</v>
       </c>
       <c r="H32" t="n">
-        <v>189.37</v>
+        <v>189368</v>
       </c>
       <c r="I32" t="n">
-        <v>193.43</v>
+        <v>174988</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1143990.34</v>
+        <v>1507963.54</v>
       </c>
     </row>
     <row r="33">
@@ -1901,10 +1901,10 @@
         <v>76906.58</v>
       </c>
       <c r="H34" t="n">
-        <v>80.45</v>
+        <v>80454</v>
       </c>
       <c r="I34" t="n">
-        <v>94.45999999999999</v>
+        <v>79570</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -1916,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>468578.92</v>
+        <v>628428.01</v>
       </c>
     </row>
     <row r="35">
@@ -1944,10 +1944,10 @@
         <v>81498.56</v>
       </c>
       <c r="H35" t="n">
-        <v>81.86</v>
+        <v>81863</v>
       </c>
       <c r="I35" t="n">
-        <v>71.55</v>
+        <v>57967</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>623258.9500000001</v>
+        <v>762935.54</v>
       </c>
     </row>
     <row r="36">
@@ -1990,7 +1990,7 @@
         <v>1135.1</v>
       </c>
       <c r="I36" t="n">
-        <v>5653</v>
+        <v>56530</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>7561.9</v>
+        <v>58438.9</v>
       </c>
     </row>
     <row r="37">
@@ -2030,10 +2030,10 @@
         <v>5688310.139999999</v>
       </c>
       <c r="H37" t="n">
-        <v>21835.95</v>
+        <v>5629081.1</v>
       </c>
       <c r="I37" t="n">
-        <v>25228.85</v>
+        <v>5722927</v>
       </c>
       <c r="J37" t="n">
         <v>3421379.44</v>
@@ -2045,7 +2045,7 @@
         <v>3515678.96</v>
       </c>
       <c r="M37" t="n">
-        <v>45056666.02</v>
+        <v>56361609.31999999</v>
       </c>
     </row>
   </sheetData>
